--- a/reports/2025年04月/收支表月報.xlsx
+++ b/reports/2025年04月/收支表月報.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,47 +452,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26725</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>總進貨成本</t>
+          <t>員工分潤</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>員工分潤</t>
+          <t>廠商分潤</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1336.25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>廠商分潤</t>
+          <t>淨利潤</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2648.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>淨利潤</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-2860</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
